--- a/biology/Médecine/Calcar_avis/Calcar_avis.xlsx
+++ b/biology/Médecine/Calcar_avis/Calcar_avis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme latin calcar avis (en français littéralement : ergot d'oiseau) désigne une éminence de forme allongée située  sur la paroi médiale de la corne postérieure du ventricule latéral. Cette formation est encore appelée hippocampus minor, c'est-à-dire petit hipopocampe ou ergot de Morand, du nom de son découvreur et correspond à l'involution de cette partie de la paroi ventriculaire due au développement de la scissure calcarine du lobe occipital.
-La description du calcar avis fut donnée pour la première fois par le chirurgien et anatomiste Sauveur-François Morand (1697-1773)[1]: ce dernier « fait part à l'Académie des Sciences, en 1744, de sa découverte d'un relief en cône de coloration blanche qu'il compare à un ergot. Située au-dessous du bulbe, occupant la totalité de la région antéro-postérieure de la corne occipitale, la face externe convexe de l'ergot de Morand bombe dans la cavité du ventricule latéral ». 
+La description du calcar avis fut donnée pour la première fois par le chirurgien et anatomiste Sauveur-François Morand (1697-1773): ce dernier « fait part à l'Académie des Sciences, en 1744, de sa découverte d'un relief en cône de coloration blanche qu'il compare à un ergot. Située au-dessous du bulbe, occupant la totalité de la région antéro-postérieure de la corne occipitale, la face externe convexe de l'ergot de Morand bombe dans la cavité du ventricule latéral ». 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gray's anatomy</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Roger Teyssou, La Médecine à la Renaissance et évolution des connaissances de la pensée médicale du quatorzième au dix-neuvième siècle en Europe, L'Harmattan, Paris, 2002, p. 199.  (ISBN 2747530590). [texte disponible sur Google books].
